--- a/test/A3.xlsx
+++ b/test/A3.xlsx
@@ -1088,7 +1088,7 @@
       <selection pane="topLeft" activeCell="P9" activeCellId="0" sqref="P9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8671875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="46.42"/>
@@ -3147,7 +3147,7 @@
       <selection pane="topLeft" activeCell="D84" activeCellId="0" sqref="D84"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8671875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.13"/>
@@ -8540,10 +8540,10 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E5" activeCellId="0" sqref="E5"/>
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -8555,7 +8555,7 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>7</v>
@@ -8586,7 +8586,7 @@
       <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.13"/>
